--- a/budget_tracker.xlsx
+++ b/budget_tracker.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Budget Comparison" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="transactions" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,71 +424,23 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>date</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Planned Amount</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Spent Amount</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Difference</t>
+          <t>account type</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>300</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1200</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>150</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
